--- a/ArticleManage/main_working_folder/output_folders/Data 59 Preparation of Activated Carbon/Data59_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 59 Preparation of Activated Carbon/Data59_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="CMS500" sheetId="1" r:id="rId1"/>
-    <sheet name="CMS550" sheetId="2" r:id="rId4"/>
-    <sheet name="CMS650" sheetId="3" r:id="rId5"/>
-    <sheet name="CMS700" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 CMS500  0-1-0-800 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 CMS550  0-1-0-800 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 CMS650  0-1-0-800 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 CMS700  0-1-0-800 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -109,7 +109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CMS500</a:t>
+              <a:t>Izoterma adsorpcji probki CMS500 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CMS500!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 CMS500  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CMS500!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 CMS500  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -186,6 +186,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -255,6 +257,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -419,7 +423,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CMS550</a:t>
+              <a:t>Izoterma adsorpcji probki CMS550 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -478,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CMS550!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 CMS550  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CMS550!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 CMS550  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -496,6 +500,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -565,6 +571,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -729,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CMS650</a:t>
+              <a:t>Izoterma adsorpcji probki CMS650 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -788,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CMS650!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 CMS650  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CMS650!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 CMS650  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -806,6 +814,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -875,6 +885,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1039,7 +1051,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CMS700</a:t>
+              <a:t>Izoterma adsorpcji probki CMS700 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1098,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CMS700!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 CMS700  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CMS700!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 CMS700  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1116,6 +1128,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1185,6 +1199,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 59 Preparation of Activated Carbon/Data59_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 59 Preparation of Activated Carbon/Data59_all_graphs_excel.xlsx
@@ -4013,7 +4013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4042,269 +4042,253 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.7791</v>
+        <v>0.0117</v>
       </c>
       <c r="B4" s="0">
-        <v>712.2084</v>
+        <v>380.0905</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9292</v>
+        <v>0.25</v>
       </c>
       <c r="B5" s="0">
-        <v>731.3511</v>
+        <v>600.905</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9863</v>
+        <v>0.33</v>
       </c>
       <c r="B6" s="0">
-        <v>765.005</v>
+        <v>635.2941</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0117</v>
+        <v>0.39</v>
       </c>
       <c r="B7" s="0">
-        <v>380.0905</v>
+        <v>653.3937</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0183</v>
+        <v>0.9597</v>
       </c>
       <c r="B8" s="0">
-        <v>392.7602</v>
+        <v>743.3314</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.03</v>
+        <v>0.9296</v>
       </c>
       <c r="B9" s="0">
-        <v>414.4796</v>
+        <v>734.9037</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0383</v>
+        <v>0.8714</v>
       </c>
       <c r="B10" s="0">
-        <v>427.1493</v>
+        <v>723.3156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0483</v>
+        <v>0.8403</v>
       </c>
       <c r="B11" s="0">
-        <v>441.629</v>
+        <v>719.1017</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0567</v>
+        <v>0.7792</v>
       </c>
       <c r="B12" s="0">
-        <v>456.1086</v>
+        <v>711.7274</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0667</v>
+        <v>0.7521</v>
       </c>
       <c r="B13" s="0">
-        <v>466.9683</v>
+        <v>708.567</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0767</v>
+        <v>0.689</v>
       </c>
       <c r="B14" s="0">
-        <v>479.638</v>
+        <v>701.1927</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0883</v>
+        <v>0.6589</v>
       </c>
       <c r="B15" s="0">
-        <v>490.4977</v>
+        <v>698.0323</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0967</v>
+        <v>0.6007</v>
       </c>
       <c r="B16" s="0">
-        <v>495.9276</v>
+        <v>690.6581</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.13</v>
+        <v>0.5697</v>
       </c>
       <c r="B17" s="0">
-        <v>526.6968</v>
+        <v>686.4442</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1567</v>
+        <v>0.4775</v>
       </c>
       <c r="B18" s="0">
-        <v>550.2262</v>
+        <v>671.6957</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1883</v>
+        <v>0.4184</v>
       </c>
       <c r="B19" s="0">
-        <v>570.1357</v>
+        <v>659.054</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2083</v>
+        <v>0.299</v>
       </c>
       <c r="B20" s="0">
-        <v>582.8054</v>
+        <v>623.2362</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2183</v>
+        <v>0.2796</v>
       </c>
       <c r="B21" s="0">
-        <v>584.6154</v>
+        <v>614.8084</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.25</v>
+        <v>0.2176</v>
       </c>
       <c r="B22" s="0">
-        <v>600.905</v>
+        <v>585.3113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2783</v>
+        <v>0.2088</v>
       </c>
       <c r="B23" s="0">
-        <v>615.3846</v>
+        <v>580.044</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3</v>
+        <v>0.1894</v>
       </c>
       <c r="B24" s="0">
-        <v>622.6244</v>
+        <v>567.4024</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.33</v>
+        <v>0.1584</v>
       </c>
       <c r="B25" s="0">
-        <v>635.2941</v>
+        <v>547.3865</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.39</v>
+        <v>0.1283</v>
       </c>
       <c r="B26" s="0">
-        <v>653.3937</v>
+        <v>526.3172</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.42</v>
+        <v>0.0885</v>
       </c>
       <c r="B27" s="0">
-        <v>660.6335</v>
+        <v>487.3389</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.4767</v>
+        <v>0.0779</v>
       </c>
       <c r="B28" s="0">
-        <v>669.6833</v>
+        <v>478.9111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.57</v>
+        <v>0.0682</v>
       </c>
       <c r="B29" s="0">
-        <v>684.1629</v>
+        <v>467.323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.5983</v>
+        <v>0.0585</v>
       </c>
       <c r="B30" s="0">
-        <v>689.5928</v>
+        <v>454.6814</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.69</v>
+        <v>0.0478</v>
       </c>
       <c r="B31" s="0">
-        <v>700.4525</v>
+        <v>443.0932</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6583</v>
+        <v>0.0381</v>
       </c>
       <c r="B32" s="0">
-        <v>696.8326</v>
+        <v>428.3447</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.75</v>
+        <v>0.0284</v>
       </c>
       <c r="B33" s="0">
-        <v>709.5023</v>
+        <v>412.5427</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8417</v>
+        <v>0.0187</v>
       </c>
       <c r="B34" s="0">
-        <v>716.7421</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.87</v>
-      </c>
-      <c r="B35" s="0">
-        <v>722.1719</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.9567</v>
-      </c>
-      <c r="B36" s="0">
-        <v>743.8914</v>
-      </c>
-    </row>
-    <row r="37"/>
+        <v>394.6337</v>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4312,314 +4296,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0017</v>
-      </c>
-      <c r="B3" s="0">
-        <v>76.0181</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0067</v>
-      </c>
-      <c r="B4" s="0">
-        <v>85.0679</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0133</v>
-      </c>
-      <c r="B5" s="0">
-        <v>95.9276</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="B6" s="0">
-        <v>97.7376</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.03</v>
-      </c>
-      <c r="B7" s="0">
-        <v>99.5475</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.0417</v>
-      </c>
-      <c r="B8" s="0">
-        <v>103.1674</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.0483</v>
-      </c>
-      <c r="B9" s="0">
-        <v>104.9774</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.0583</v>
-      </c>
-      <c r="B10" s="0">
-        <v>106.7873</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.0683</v>
-      </c>
-      <c r="B11" s="0">
-        <v>108.5973</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.0767</v>
-      </c>
-      <c r="B12" s="0">
-        <v>110.4072</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.0917</v>
-      </c>
-      <c r="B13" s="0">
-        <v>110.4072</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.1283</v>
-      </c>
-      <c r="B14" s="0">
-        <v>112.2172</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.16</v>
-      </c>
-      <c r="B15" s="0">
-        <v>114.0271</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.1883</v>
-      </c>
-      <c r="B16" s="0">
-        <v>114.0271</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.2083</v>
-      </c>
-      <c r="B17" s="0">
-        <v>114.0271</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.2183</v>
-      </c>
-      <c r="B18" s="0">
-        <v>115.8371</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="B19" s="0">
-        <v>115.8371</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.28</v>
-      </c>
-      <c r="B20" s="0">
-        <v>119.457</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.2983</v>
-      </c>
-      <c r="B21" s="0">
-        <v>117.6471</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.33</v>
-      </c>
-      <c r="B22" s="0">
-        <v>117.6471</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.3883</v>
-      </c>
-      <c r="B23" s="0">
-        <v>119.457</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B24" s="0">
-        <v>121.267</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B25" s="0">
-        <v>119.457</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.51</v>
-      </c>
-      <c r="B26" s="0">
-        <v>121.267</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5683</v>
-      </c>
-      <c r="B27" s="0">
-        <v>123.0769</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B28" s="0">
-        <v>123.0769</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6617</v>
-      </c>
-      <c r="B29" s="0">
-        <v>124.8869</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6883</v>
-      </c>
-      <c r="B30" s="0">
-        <v>126.6968</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.75</v>
-      </c>
-      <c r="B31" s="0">
-        <v>124.8869</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.7783</v>
-      </c>
-      <c r="B32" s="0">
-        <v>126.6968</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B33" s="0">
-        <v>128.5068</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.8683</v>
-      </c>
-      <c r="B34" s="0">
-        <v>130.3167</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.9283</v>
-      </c>
-      <c r="B35" s="0">
-        <v>133.9367</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B36" s="0">
-        <v>137.5566</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.9883</v>
-      </c>
-      <c r="B37" s="0">
-        <v>144.7964</v>
-      </c>
-    </row>
-    <row r="38"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B37"/>
   <sheetViews>
@@ -4629,7 +4305,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -4642,277 +4318,537 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0017</v>
+        <v>0.1283</v>
       </c>
       <c r="B3" s="0">
-        <v>152.0362</v>
+        <v>112.2172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0117</v>
+        <v>0.16</v>
       </c>
       <c r="B4" s="0">
-        <v>161.086</v>
+        <v>114.0271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0233</v>
+        <v>0.1883</v>
       </c>
       <c r="B5" s="0">
-        <v>168.3258</v>
+        <v>114.0271</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.03</v>
+        <v>0.6883</v>
       </c>
       <c r="B6" s="0">
-        <v>171.9457</v>
+        <v>126.6968</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.04</v>
+        <v>0.9283</v>
       </c>
       <c r="B7" s="0">
-        <v>173.7557</v>
+        <v>133.9367</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.05</v>
+        <v>0.8675</v>
       </c>
       <c r="B8" s="0">
-        <v>175.5656</v>
+        <v>131.2669</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0617</v>
+        <v>0.8384</v>
       </c>
       <c r="B9" s="0">
-        <v>179.1855</v>
+        <v>131.2669</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0733</v>
+        <v>0.7802</v>
       </c>
       <c r="B10" s="0">
-        <v>179.1855</v>
+        <v>129.1599</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0817</v>
+        <v>0.7491</v>
       </c>
       <c r="B11" s="0">
-        <v>182.8054</v>
+        <v>128.1065</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0933</v>
+        <v>0.6599</v>
       </c>
       <c r="B12" s="0">
-        <v>182.8054</v>
+        <v>125.9995</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.13</v>
+        <v>0.5978</v>
       </c>
       <c r="B13" s="0">
-        <v>186.4253</v>
+        <v>124.9461</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1583</v>
+        <v>0.5687</v>
       </c>
       <c r="B14" s="0">
-        <v>186.4253</v>
+        <v>122.8391</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1917</v>
+        <v>0.5076</v>
       </c>
       <c r="B15" s="0">
-        <v>190.0452</v>
+        <v>122.8391</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2117</v>
+        <v>0.4795</v>
       </c>
       <c r="B16" s="0">
-        <v>190.0452</v>
+        <v>122.8391</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2233</v>
+        <v>0.4184</v>
       </c>
       <c r="B17" s="0">
-        <v>190.0452</v>
+        <v>121.7857</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2517</v>
+        <v>0.3893</v>
       </c>
       <c r="B18" s="0">
-        <v>193.6652</v>
+        <v>120.7322</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.28</v>
+        <v>0.3281</v>
       </c>
       <c r="B19" s="0">
-        <v>195.4751</v>
+        <v>119.6787</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2967</v>
+        <v>0.3</v>
       </c>
       <c r="B20" s="0">
-        <v>195.4751</v>
+        <v>117.5718</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.33</v>
+        <v>0.2787</v>
       </c>
       <c r="B21" s="0">
-        <v>195.4751</v>
+        <v>116.5183</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3917</v>
+        <v>0.2486</v>
       </c>
       <c r="B22" s="0">
-        <v>197.2851</v>
+        <v>115.4649</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.2185</v>
       </c>
       <c r="B23" s="0">
-        <v>197.2851</v>
+        <v>116.5183</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.48</v>
+        <v>0.2088</v>
       </c>
       <c r="B24" s="0">
-        <v>199.095</v>
+        <v>115.4649</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.51</v>
+        <v>0.0992</v>
       </c>
       <c r="B25" s="0">
-        <v>202.7149</v>
+        <v>112.3045</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.57</v>
+        <v>0.0885</v>
       </c>
       <c r="B26" s="0">
-        <v>204.5249</v>
+        <v>111.251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6</v>
+        <v>0.0788</v>
       </c>
       <c r="B27" s="0">
-        <v>204.5249</v>
+        <v>109.1441</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6617</v>
+        <v>0.0691</v>
       </c>
       <c r="B28" s="0">
-        <v>206.3348</v>
+        <v>109.1441</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6883</v>
+        <v>0.0585</v>
       </c>
       <c r="B29" s="0">
-        <v>206.3348</v>
+        <v>108.0906</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.75</v>
+        <v>0.0497</v>
       </c>
       <c r="B30" s="0">
-        <v>208.1448</v>
+        <v>107.0371</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7783</v>
+        <v>0.04</v>
       </c>
       <c r="B31" s="0">
-        <v>209.9548</v>
+        <v>103.8767</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.8417</v>
+        <v>0.0294</v>
       </c>
       <c r="B32" s="0">
-        <v>213.5747</v>
+        <v>101.7698</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.87</v>
+        <v>0.0187</v>
       </c>
       <c r="B33" s="0">
-        <v>213.5747</v>
+        <v>99.6629</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.93</v>
+        <v>0.009</v>
       </c>
       <c r="B34" s="0">
-        <v>219.0045</v>
+        <v>95.449</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.9583</v>
+        <v>0.0022</v>
       </c>
       <c r="B35" s="0">
-        <v>222.6244</v>
+        <v>76.4866</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.9883</v>
+        <v>0.0051</v>
       </c>
       <c r="B36" s="0">
-        <v>242.5339</v>
+        <v>85.9678</v>
       </c>
     </row>
     <row r="37"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.13</v>
+      </c>
+      <c r="B3" s="0">
+        <v>186.4253</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.2517</v>
+      </c>
+      <c r="B4" s="0">
+        <v>193.6652</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.33</v>
+      </c>
+      <c r="B5" s="0">
+        <v>195.4751</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.3917</v>
+      </c>
+      <c r="B6" s="0">
+        <v>197.2851</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.42</v>
+      </c>
+      <c r="B7" s="0">
+        <v>197.2851</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="B8" s="0">
+        <v>199.095</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.57</v>
+      </c>
+      <c r="B9" s="0">
+        <v>204.5249</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="0">
+        <v>204.5249</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6883</v>
+      </c>
+      <c r="B11" s="0">
+        <v>206.3348</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="B12" s="0">
+        <v>208.1448</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.7783</v>
+      </c>
+      <c r="B13" s="0">
+        <v>209.9548</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.8417</v>
+      </c>
+      <c r="B14" s="0">
+        <v>213.5747</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.87</v>
+      </c>
+      <c r="B15" s="0">
+        <v>213.5747</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.93</v>
+      </c>
+      <c r="B16" s="0">
+        <v>219.0045</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.9606</v>
+      </c>
+      <c r="B17" s="0">
+        <v>222.9185</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.6599</v>
+      </c>
+      <c r="B18" s="0">
+        <v>203.9561</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5105</v>
+      </c>
+      <c r="B19" s="0">
+        <v>199.7423</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.299</v>
+      </c>
+      <c r="B20" s="0">
+        <v>193.4215</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2796</v>
+      </c>
+      <c r="B21" s="0">
+        <v>193.4215</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.2195</v>
+      </c>
+      <c r="B22" s="0">
+        <v>189.2076</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.2079</v>
+      </c>
+      <c r="B23" s="0">
+        <v>189.2076</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0885</v>
+      </c>
+      <c r="B24" s="0">
+        <v>180.7799</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0798</v>
+      </c>
+      <c r="B25" s="0">
+        <v>180.7799</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0691</v>
+      </c>
+      <c r="B26" s="0">
+        <v>179.7264</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0594</v>
+      </c>
+      <c r="B27" s="0">
+        <v>178.6729</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0488</v>
+      </c>
+      <c r="B28" s="0">
+        <v>176.566</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0391</v>
+      </c>
+      <c r="B29" s="0">
+        <v>175.5125</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0284</v>
+      </c>
+      <c r="B30" s="0">
+        <v>172.3521</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0177</v>
+      </c>
+      <c r="B31" s="0">
+        <v>169.1917</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4921,7 +4857,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4942,437 +4878,261 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0018</v>
+        <v>0.9587</v>
       </c>
       <c r="B3" s="0">
-        <v>157.1062</v>
+        <v>252.4156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.012</v>
+        <v>0.8685</v>
       </c>
       <c r="B4" s="0">
-        <v>176.6239</v>
+        <v>243.9879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0292</v>
+        <v>0.7792</v>
       </c>
       <c r="B5" s="0">
-        <v>185.6695</v>
+        <v>238.7206</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0457</v>
+        <v>0.7491</v>
       </c>
       <c r="B6" s="0">
-        <v>195.4998</v>
+        <v>238.7206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0652</v>
+        <v>0.688</v>
       </c>
       <c r="B7" s="0">
-        <v>204.9087</v>
+        <v>236.6136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0839</v>
+        <v>0.6599</v>
       </c>
       <c r="B8" s="0">
-        <v>209.5039</v>
+        <v>234.5067</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1027</v>
+        <v>0.5988</v>
       </c>
       <c r="B9" s="0">
-        <v>212.9933</v>
+        <v>234.5067</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1215</v>
+        <v>0.5697</v>
       </c>
       <c r="B10" s="0">
-        <v>215.4825</v>
+        <v>232.3998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1402</v>
+        <v>0.5076</v>
       </c>
       <c r="B11" s="0">
-        <v>216.2123</v>
+        <v>231.3463</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.159</v>
+        <v>0.4795</v>
       </c>
       <c r="B12" s="0">
-        <v>218.5632</v>
+        <v>230.2928</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1778</v>
+        <v>0.4193</v>
       </c>
       <c r="B13" s="0">
-        <v>220.0676</v>
+        <v>229.2394</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1965</v>
+        <v>0.3883</v>
       </c>
       <c r="B14" s="0">
-        <v>220.2902</v>
+        <v>228.1859</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2153</v>
+        <v>0.3301</v>
       </c>
       <c r="B15" s="0">
-        <v>220.8716</v>
+        <v>226.0789</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2341</v>
+        <v>0.2981</v>
       </c>
       <c r="B16" s="0">
-        <v>222.7803</v>
+        <v>225.0255</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2528</v>
+        <v>0.2767</v>
       </c>
       <c r="B17" s="0">
-        <v>222.5615</v>
+        <v>223.972</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2721</v>
+        <v>0.2496</v>
       </c>
       <c r="B18" s="0">
-        <v>224.5322</v>
+        <v>222.9185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2898</v>
+        <v>0.2195</v>
       </c>
       <c r="B19" s="0">
-        <v>224.0868</v>
+        <v>221.8651</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3091</v>
+        <v>0.2098</v>
       </c>
       <c r="B20" s="0">
-        <v>225.0313</v>
+        <v>221.8651</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3279</v>
+        <v>0.1904</v>
       </c>
       <c r="B21" s="0">
-        <v>226.4749</v>
+        <v>220.8116</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3466</v>
+        <v>0.1613</v>
       </c>
       <c r="B22" s="0">
-        <v>227.9055</v>
+        <v>219.7581</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3654</v>
+        <v>0.1283</v>
       </c>
       <c r="B23" s="0">
-        <v>229.0956</v>
+        <v>215.5443</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3842</v>
+        <v>0.1002</v>
       </c>
       <c r="B24" s="0">
-        <v>228.4781</v>
+        <v>212.3839</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4029</v>
+        <v>0.0905</v>
       </c>
       <c r="B25" s="0">
-        <v>228.6185</v>
+        <v>211.3304</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4217</v>
+        <v>0.0798</v>
       </c>
       <c r="B26" s="0">
-        <v>229.0551</v>
+        <v>210.2769</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4405</v>
+        <v>0.0691</v>
       </c>
       <c r="B27" s="0">
-        <v>229.8394</v>
+        <v>206.0631</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.4592</v>
+        <v>0.0585</v>
       </c>
       <c r="B28" s="0">
-        <v>230.7236</v>
+        <v>202.9027</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.478</v>
+        <v>0.0497</v>
       </c>
       <c r="B29" s="0">
-        <v>230.5512</v>
+        <v>200.7957</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.4968</v>
+        <v>0.0391</v>
       </c>
       <c r="B30" s="0">
-        <v>231.4814</v>
+        <v>197.6353</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.5155</v>
+        <v>0.0294</v>
       </c>
       <c r="B31" s="0">
-        <v>232.5649</v>
+        <v>192.368</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.5343</v>
+        <v>0.0197</v>
       </c>
       <c r="B32" s="0">
-        <v>235.7198</v>
+        <v>181.8333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.5531</v>
+        <v>0.009</v>
       </c>
       <c r="B33" s="0">
-        <v>235.2482</v>
+        <v>172.3521</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.5718</v>
+        <v>0.0032</v>
       </c>
       <c r="B34" s="0">
-        <v>234.3781</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.5906</v>
-      </c>
-      <c r="B35" s="0">
-        <v>233.9571</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.6093</v>
-      </c>
-      <c r="B36" s="0">
-        <v>234.235</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.6281</v>
-      </c>
-      <c r="B37" s="0">
-        <v>235.8461</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.6469</v>
-      </c>
-      <c r="B38" s="0">
-        <v>235.5654</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.6656</v>
-      </c>
-      <c r="B39" s="0">
-        <v>235.6075</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.6844</v>
-      </c>
-      <c r="B40" s="0">
-        <v>236.2811</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.7032</v>
-      </c>
-      <c r="B41" s="0">
-        <v>238.0286</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.7219</v>
-      </c>
-      <c r="B42" s="0">
-        <v>238.8426</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.7407</v>
-      </c>
-      <c r="B43" s="0">
-        <v>238.9396</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.7595</v>
-      </c>
-      <c r="B44" s="0">
-        <v>238.5827</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.7782</v>
-      </c>
-      <c r="B45" s="0">
-        <v>238.9083</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.797</v>
-      </c>
-      <c r="B46" s="0">
-        <v>241.4176</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.8158</v>
-      </c>
-      <c r="B47" s="0">
-        <v>241.0808</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.8345</v>
-      </c>
-      <c r="B48" s="0">
-        <v>241.8948</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.8533</v>
-      </c>
-      <c r="B49" s="0">
-        <v>242.6106</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.8719</v>
-      </c>
-      <c r="B50" s="0">
-        <v>241.5534</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.8908</v>
-      </c>
-      <c r="B51" s="0">
-        <v>245.5662</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9096</v>
-      </c>
-      <c r="B52" s="0">
-        <v>245.5942</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9285</v>
-      </c>
-      <c r="B53" s="0">
-        <v>245.809</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.9471</v>
-      </c>
-      <c r="B54" s="0">
-        <v>249.9111</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.9659</v>
-      </c>
-      <c r="B55" s="0">
-        <v>253.3523</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.9845</v>
-      </c>
-      <c r="B56" s="0">
-        <v>261.5</v>
-      </c>
-    </row>
-    <row r="57"/>
+        <v>158.657</v>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 59 Preparation of Activated Carbon/Data59_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 59 Preparation of Activated Carbon/Data59_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 CMS500  0-1-0-800 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 CMS550  0-1-0-800 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 CMS650  0-1-0-800 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2 CMS700  0-1-0-800 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 CMS500  0&amp;1&amp;0&amp;800 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 CMS550  0&amp;1&amp;0&amp;800 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 CMS650  0&amp;1&amp;0&amp;800 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 CMS700  0&amp;1&amp;0&amp;800 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 CMS500  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 CMS500  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 CMS500  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 CMS500  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -482,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 CMS550  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 CMS550  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 CMS550  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 CMS550  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -796,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 CMS650  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 CMS650  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 CMS650  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 CMS650  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1110,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 CMS700  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 CMS700  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 CMS700  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 CMS700  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
